--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_223c\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F2ADB15F-563D-4C36-B6F9-FF6F0B0647E6}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4A1C886E-4D47-4953-8DDF-1369A25563B7}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="5" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="tasks" sheetId="6" r:id="rId6"/>
     <sheet name="joins" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="126">
   <si>
     <t>改定履歴</t>
   </si>
@@ -650,9 +650,6 @@
     <t>phone_number</t>
   </si>
   <si>
-    <t>char</t>
-  </si>
-  <si>
     <t>電話番号(会社)</t>
   </si>
   <si>
@@ -749,7 +746,7 @@
     <t>投稿内容</t>
   </si>
   <si>
-    <t>post</t>
+    <t>message</t>
   </si>
   <si>
     <t>添付ファイル</t>
@@ -1033,10 +1030,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1342,7 +1339,7 @@
         <v>43955</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -30164,15 +30161,15 @@
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
@@ -30183,15 +30180,15 @@
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
@@ -30202,18 +30199,18 @@
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30244,11 +30241,11 @@
       <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -30276,11 +30273,11 @@
         <v>26</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30304,11 +30301,11 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30330,11 +30327,11 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="24"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30362,11 +30359,11 @@
       <c r="K8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="24"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30388,11 +30385,11 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="24"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30416,11 +30413,11 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="24"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30442,11 +30439,11 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="24"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30470,8 +30467,8 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30492,9 +30489,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30515,13 +30512,13 @@
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -30532,13 +30529,13 @@
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -30547,16 +30544,16 @@
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30589,7 +30586,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
@@ -30617,7 +30614,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30643,7 +30640,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30669,7 +30666,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30695,7 +30692,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30719,7 +30716,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30731,7 +30728,7 @@
         <v>65</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F10" s="16">
         <v>13</v>
@@ -30743,19 +30740,19 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F11" s="16">
         <v>13</v>
@@ -30767,19 +30764,19 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
@@ -30793,23 +30790,23 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="E13" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="20"/>
@@ -30821,19 +30818,19 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>77</v>
-      </c>
       <c r="E14" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="20"/>
@@ -30845,30 +30842,30 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30914,34 +30911,34 @@
         <v>2</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -30950,16 +30947,16 @@
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30992,7 +30989,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
@@ -31020,13 +31017,13 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>61</v>
@@ -31046,16 +31043,16 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>57</v>
@@ -31070,19 +31067,19 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -31096,23 +31093,23 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>87</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -31126,23 +31123,23 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -31156,23 +31153,23 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
@@ -31184,16 +31181,16 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>52</v>
@@ -31206,27 +31203,27 @@
         <v>53</v>
       </c>
       <c r="I12" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="26" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>77</v>
-      </c>
       <c r="E13" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="20"/>
@@ -31238,16 +31235,16 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>52</v>
@@ -31260,11 +31257,11 @@
         <v>53</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J14" s="20"/>
       <c r="K14" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -31288,7 +31285,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31309,34 +31306,34 @@
         <v>2</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -31345,16 +31342,16 @@
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -31387,7 +31384,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B13" si="0">ROW()-4</f>
         <v>1</v>
@@ -31415,16 +31412,16 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>57</v>
@@ -31441,16 +31438,16 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>57</v>
@@ -31465,16 +31462,16 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>52</v>
@@ -31487,27 +31484,27 @@
         <v>53</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -31521,23 +31518,23 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>106</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="20"/>
@@ -31549,16 +31546,16 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>52</v>
@@ -31571,27 +31568,27 @@
         <v>53</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>77</v>
-      </c>
       <c r="E12" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="20"/>
@@ -31603,16 +31600,16 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>52</v>
@@ -31625,11 +31622,11 @@
         <v>53</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -31651,7 +31648,7 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
@@ -31674,34 +31671,34 @@
         <v>2</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -31710,16 +31707,16 @@
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -31752,7 +31749,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
@@ -31780,16 +31777,16 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>112</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>57</v>
@@ -31806,16 +31803,16 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>52</v>
@@ -31828,27 +31825,27 @@
         <v>53</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>116</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="20"/>
@@ -31858,19 +31855,19 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>118</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -31884,23 +31881,23 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -31914,23 +31911,23 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
@@ -31942,16 +31939,16 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>52</v>
@@ -31964,27 +31961,27 @@
         <v>53</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>77</v>
-      </c>
       <c r="E13" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="20"/>
@@ -31996,16 +31993,16 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>52</v>
@@ -32018,11 +32015,11 @@
         <v>53</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J14" s="20"/>
       <c r="K14" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -32067,34 +32064,34 @@
         <v>2</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -32103,16 +32100,16 @@
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -32145,16 +32142,16 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B7" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>52</v>
@@ -32167,24 +32164,24 @@
         <v>53</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>52</v>
@@ -32197,27 +32194,27 @@
         <v>53</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>126</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="20"/>

--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_223c\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4A1C886E-4D47-4953-8DDF-1369A25563B7}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C5C7FCEC-5E56-445A-BE1A-C0410192B901}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="5" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -701,7 +701,7 @@
     <t>ファイル送信フラグ</t>
   </si>
   <si>
-    <t>is_file_sent</t>
+    <t>is_file_permitted</t>
   </si>
   <si>
     <t>1:ファイル送信不可</t>
@@ -30139,7 +30139,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -30489,7 +30489,7 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
@@ -30886,9 +30886,9 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>

--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_223c\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="279" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C5C7FCEC-5E56-445A-BE1A-C0410192B901}"/>
+  <xr:revisionPtr revIDLastSave="280" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9C08874F-BDC3-43F2-98D3-832886122528}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -701,7 +701,7 @@
     <t>ファイル送信フラグ</t>
   </si>
   <si>
-    <t>is_file_permitted</t>
+    <t>is_file_permittable</t>
   </si>
   <si>
     <t>1:ファイル送信不可</t>
@@ -30888,7 +30888,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>

--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_223c\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="280" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9C08874F-BDC3-43F2-98D3-832886122528}"/>
+  <xr:revisionPtr revIDLastSave="281" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4C1E4120-D85F-4D1B-981B-2E877E817F23}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -701,7 +701,7 @@
     <t>ファイル送信フラグ</t>
   </si>
   <si>
-    <t>is_file_permittable</t>
+    <t>is_file_sendable</t>
   </si>
   <si>
     <t>1:ファイル送信不可</t>
@@ -30888,7 +30888,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>

--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_223c\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="281" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4C1E4120-D85F-4D1B-981B-2E877E817F23}"/>
+  <xr:revisionPtr revIDLastSave="284" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9F0F476E-A42B-4154-84FE-192951888334}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,7 +704,7 @@
     <t>is_file_sendable</t>
   </si>
   <si>
-    <t>1:ファイル送信不可</t>
+    <t>1:ファイル送信可能</t>
   </si>
   <si>
     <t>ダイレクトチャットフラグ</t>
@@ -30888,7 +30888,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31085,7 +31085,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>53</v>
